--- a/MapData/ブック 2.xlsx
+++ b/MapData/ブック 2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="511" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94C09801-2C86-4FD2-8E08-946ADA8794D0}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\GitHub\Dxlib_GroupWork\MapData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42FF7E-A1DB-47F6-AE0B-C3C68011092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,7 +53,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,7 +116,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0"/>
@@ -164,6 +174,56 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -500,1302 +560,1301 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="3.375" customWidth="1"/>
     <col min="3" max="21" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S1" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T1" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="19.5" customHeight="1">
+    <row r="3" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="19.5" customHeight="1">
+    <row r="4" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="19.5" customHeight="1">
+    <row r="5" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="19.5" customHeight="1">
+    <row r="6" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5" customHeight="1">
+    <row r="7" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" ht="19.5" customHeight="1">
+    <row r="8" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T8" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T10" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T15" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T16" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T17" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T18" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T19" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="19.5" customHeight="1"/>
-    <row r="22" spans="1:20"/>
-    <row r="23" spans="1:20"/>
-    <row r="24" spans="1:20"/>
-    <row r="25" spans="1:20"/>
-    <row r="26" spans="1:20"/>
-    <row r="27" spans="1:20"/>
-    <row r="28" spans="1:20"/>
-    <row r="29" spans="1:20"/>
-    <row r="30" spans="1:20"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>A1=5</formula>
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>A1=4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="10" priority="13">
       <formula>A1 = "０"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>A1=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>A1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>A1=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>